--- a/2021春季学期学生助理值班表 - 0216.xlsx
+++ b/2021春季学期学生助理值班表 - 0216.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\工作相关\01CrocodileRobot\code\myfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAB65A2-0885-4435-9061-73EAD42D72CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006D0CC-7AC1-4929-A312-5435A261F0D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18230" windowHeight="11630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18225" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排班" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>上午</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -366,12 +366,397 @@
 柯泽涛</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>周一二四五的下午都有空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾晋东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">赵昕（研）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贾晋东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+鄢伟明</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贾晋东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+【 空缺 】
+牟文迪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贾晋东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>袁冉慧
+方泓杰（研）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鄢伟明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贾晋东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>牟文迪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周永坚（研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>袁冉慧</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贾晋东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>袁冉慧</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>李俊林（研）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鄢伟明</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>李俊林（研）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+鄢伟明</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>李俊林（研）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周永坚（研）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+王路倩（研）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+王路倩（研）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2022航院深圳校区春季</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上半学期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>助理值班表（3月25日订2）（疫情封校期间）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +829,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -503,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -521,6 +930,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -811,36 +1229,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FD783E-8223-4BD7-AC5F-F70124786184}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="19.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="11.375" style="1" customWidth="1"/>
+    <col min="9" max="13" width="15.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
+    <col min="15" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="19.375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -857,8 +1287,24 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,56 +1323,74 @@
       <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -945,65 +1409,99 @@
       <c r="F4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="1" t="s">
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:30" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -1020,8 +1518,24 @@
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1040,8 +1554,29 @@
       <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1060,12 +1595,36 @@
       <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H6:M6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
